--- a/oblig3/runtime data.xlsx
+++ b/oblig3/runtime data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B516EAA1-2F7A-44D5-BF93-90DBDE0545A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="15255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -25,10 +19,10 @@
     <t>n</t>
   </si>
   <si>
-    <t>Parallel Sieve</t>
+    <t>Sequential Sieve</t>
   </si>
   <si>
-    <t>Sequential Sieve</t>
+    <t>Parallel Sieve</t>
   </si>
   <si>
     <t>Sequential factorization</t>
@@ -40,35 +34,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -78,53 +405,335 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -142,7 +751,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -166,6 +775,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -174,26 +784,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -226,22 +816,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$8:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="0.00E+00">
                   <c:v>2000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="0.00E+00">
                   <c:v>20000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="0.00E+00">
                   <c:v>200000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="0.00E+00">
                   <c:v>2000000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -254,25 +847,20 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>291.80669999999998</c:v>
+                  <c:v>114.599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2673.7955000000002</c:v>
+                  <c:v>1100.163</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19765.3917</c:v>
+                  <c:v>8491.633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>161344.80989999999</c:v>
+                  <c:v>81364.091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-01C8-4A14-B7A9-D45F9D58988D}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -298,22 +886,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$8:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="0.00E+00">
                   <c:v>2000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="0.00E+00">
                   <c:v>20000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="0.00E+00">
                   <c:v>200000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="0.00E+00">
                   <c:v>2000000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -326,25 +917,20 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>161.9768</c:v>
+                  <c:v>68.593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>679.21439999999996</c:v>
+                  <c:v>441.025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5251.9251999999997</c:v>
+                  <c:v>3496.971</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50346.506800000003</c:v>
+                  <c:v>35316.276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-01C8-4A14-B7A9-D45F9D58988D}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -388,7 +974,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -400,7 +986,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="393515167"/>
@@ -447,7 +1032,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -459,7 +1044,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="382131023"/>
@@ -476,6 +1060,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -489,7 +1074,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -501,19 +1086,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -536,9 +1113,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -550,9 +1126,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -570,7 +1146,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -590,9 +1166,11 @@
               <a:rPr lang="en-US" baseline="0"/>
               <a:t> Sieve VS Parallel Sieve</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -601,26 +1179,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -653,22 +1211,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="0.00E+00">
                   <c:v>2000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="0.00E+00">
                   <c:v>20000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="0.00E+00">
                   <c:v>200000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="0.00E+00">
                   <c:v>2000000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -681,25 +1242,20 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>64.111000000000004</c:v>
+                  <c:v>12.742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>456.54939999999999</c:v>
+                  <c:v>130.255</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3586.4416999999999</c:v>
+                  <c:v>1561.351</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32939.7745</c:v>
+                  <c:v>18826.507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A777-4E21-B0DA-9B65AB645773}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -725,22 +1281,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="0.00E+00">
                   <c:v>2000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="0.00E+00">
                   <c:v>20000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="0.00E+00">
                   <c:v>200000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="0.00E+00">
                   <c:v>2000000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -753,25 +1312,20 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17.855</c:v>
+                  <c:v>9.993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115.4913</c:v>
+                  <c:v>78.932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1393.1667</c:v>
+                  <c:v>810.897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14102.1057</c:v>
+                  <c:v>11781.409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A777-4E21-B0DA-9B65AB645773}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -815,7 +1369,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -827,7 +1381,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="305348159"/>
@@ -874,7 +1427,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -886,7 +1439,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="389140831"/>
@@ -903,6 +1455,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -916,7 +1469,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -928,19 +1481,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -963,9 +1508,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2067,7 +2611,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2081,20 +2625,14 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48719EDB-505F-45B7-BE34-AA75CA17CEC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="4505325" y="3609340"/>
+        <a:ext cx="6682105" cy="2847975"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2117,20 +2655,14 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F929D51-826F-4EC1-9E14-78EDFC9B9ED7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="4524375" y="542925"/>
+        <a:ext cx="6671945" cy="2914015"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2186,7 +2718,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2221,7 +2753,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2395,147 +2927,143 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="A1:C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.1416666666667" customWidth="1"/>
+    <col min="2" max="2" width="22.1416666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.2833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12.742</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9.993</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>2000000</v>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>20000000</v>
       </c>
-      <c r="B2" s="2">
-        <v>64.111000000000004</v>
+      <c r="B3" s="1">
+        <v>130.255</v>
       </c>
-      <c r="C2" s="2">
-        <v>17.855</v>
+      <c r="C3" s="1">
+        <v>78.932</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>20000000</v>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>200000000</v>
       </c>
-      <c r="B3" s="2">
-        <v>456.54939999999999</v>
+      <c r="B4" s="1">
+        <v>1561.351</v>
       </c>
-      <c r="C3" s="2">
-        <v>115.4913</v>
+      <c r="C4" s="1">
+        <v>810.897</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>200000000</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>2000000000</v>
       </c>
-      <c r="B4" s="2">
-        <v>3586.4416999999999</v>
+      <c r="B5" s="1">
+        <v>18826.507</v>
       </c>
-      <c r="C4" s="2">
-        <v>1393.1667</v>
+      <c r="C5" s="1">
+        <v>11781.409</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2000000000</v>
-      </c>
-      <c r="B5" s="2">
-        <v>32939.7745</v>
-      </c>
-      <c r="C5" s="2">
-        <v>14102.1057</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
         <v>2000000</v>
       </c>
-      <c r="B8" s="2">
-        <v>291.80669999999998</v>
+      <c r="B8" s="1">
+        <v>114.599</v>
       </c>
-      <c r="C8" s="2">
-        <v>161.9768</v>
+      <c r="C8" s="1">
+        <v>68.593</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
         <v>20000000</v>
       </c>
-      <c r="B9" s="1">
-        <v>2673.7955000000002</v>
+      <c r="B9" s="4">
+        <v>1100.163</v>
       </c>
-      <c r="C9" s="2">
-        <v>679.21439999999996</v>
+      <c r="C9" s="1">
+        <v>441.025</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
         <v>200000000</v>
       </c>
-      <c r="B10" s="4">
-        <v>19765.3917</v>
+      <c r="B10" s="5">
+        <v>8491.633</v>
       </c>
-      <c r="C10" s="2">
-        <v>5251.9251999999997</v>
+      <c r="C10" s="1">
+        <v>3496.971</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
         <v>2000000000</v>
       </c>
-      <c r="B11" s="2">
-        <v>161344.80989999999</v>
+      <c r="B11" s="1">
+        <v>81364.091</v>
       </c>
-      <c r="C11" s="2">
-        <v>50346.506800000003</v>
+      <c r="C11" s="1">
+        <v>35316.276</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>